--- a/src/analysis_examples/circadb/results_jtk/cosinor_10534694_srrt_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10534694_srrt_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2284817952020593, 0.3337844885924978]</t>
+          <t>[0.22778392939039532, 0.3344823544041618]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.003233217668821e-10</v>
+        <v>3.808573456609565e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>3.003233217668821e-10</v>
+        <v>3.808573456609565e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8805264694746171</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.0692107129334634, -0.6918422260157708]</t>
+          <t>[-1.0817896624973873, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>3.265256953710605e-09</v>
+        <v>9.867851424871787e-09</v>
       </c>
       <c r="R2" t="n">
-        <v>3.265256953710605e-09</v>
+        <v>9.867851424871787e-09</v>
       </c>
       <c r="S2" t="n">
         <v>0.4355213034670943</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4081764374506366, 0.46286616948355197]</t>
+          <t>[0.4081362802761033, 0.46290632665808523]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>3.486686686686795</v>
       </c>
       <c r="X2" t="n">
-        <v>2.739539539539626</v>
+        <v>2.689729729729811</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.233833833833964</v>
+        <v>4.283643643643779</v>
       </c>
     </row>
   </sheetData>
